--- a/DB/ÓraiMunka.xlsx
+++ b/DB/ÓraiMunka.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szoft46\source\repos\LyleiLanar\ProgModul\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B889CA-9E1D-4E41-95FA-7B0695C22559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144A384-7B50-41B2-BD61-57B47D569579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{272257AB-DECC-44DF-B6AE-8A89DA8E2A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{272257AB-DECC-44DF-B6AE-8A89DA8E2A70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Könyvek" sheetId="1" r:id="rId1"/>
+    <sheet name="JátékokDB" sheetId="2" r:id="rId2"/>
+    <sheet name="Bevallas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Cím</t>
   </si>
@@ -118,16 +120,92 @@
   </si>
   <si>
     <t>KonyvID</t>
+  </si>
+  <si>
+    <t>JATEKOS</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>szöveg</t>
+  </si>
+  <si>
+    <t>JATEKOS_ID</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>JATEK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>egész</t>
+  </si>
+  <si>
+    <t>JATEK_ID</t>
+  </si>
+  <si>
+    <t>jatekos 1</t>
+  </si>
+  <si>
+    <t>jatekos 2</t>
+  </si>
+  <si>
+    <t>jatekos 3</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>EREDMENY</t>
+  </si>
+  <si>
+    <t>MECCS</t>
+  </si>
+  <si>
+    <t>DATUM</t>
+  </si>
+  <si>
+    <t>dátum</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>Szamla{}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -286,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -301,6 +379,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -316,6 +418,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Szövegdoboz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9CC1F5-31E8-421D-AA4F-4C455B1D3917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="104775"/>
+          <a:ext cx="3810000" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100"/>
+            <a:t>Egy játék</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" baseline="0"/>
+            <a:t> eredményét akarjuk eltárolni:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="hu-HU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1100" baseline="0"/>
+            <a:t>Név, elértPontok</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F075E35-8C68-4EB8-BBC1-6A52A37FAD40}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,4 +1226,263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9C155A-FB9F-499A-B64F-724C267A8DAA}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="E8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="I8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136DB6D5-7F27-41F7-AF72-C5615F7AD638}">
+  <dimension ref="A2:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>